--- a/src/main/resources/excels/PlanPermission.xlsx
+++ b/src/main/resources/excels/PlanPermission.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A4BCC2-CFD3-4AFC-AAFD-0B107FD0864A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="4116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="122">
   <si>
     <t>MenuItem</t>
   </si>
@@ -382,46 +391,71 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -447,78 +481,72 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -708,28 +736,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.75"/>
-    <col customWidth="1" min="2" max="2" width="37.75"/>
-    <col customWidth="1" min="3" max="3" width="22.38"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -801,7 +832,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -847,7 +878,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -873,7 +904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -899,7 +930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -945,7 +976,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -971,7 +1002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -997,7 +1028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1023,7 +1054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +1080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -1075,7 +1106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1101,7 +1132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1127,7 +1158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1173,7 +1204,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1199,7 +1230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1225,33 +1256,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1277,7 +1308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
@@ -1303,7 +1334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
@@ -1329,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -1355,7 +1386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1401,7 +1432,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1409,7 +1440,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>11</v>
@@ -1417,14 +1448,14 @@
       <c r="E23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>15</v>
+      <c r="F23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1447,7 +1478,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -1455,7 +1486,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>11</v>
@@ -1466,14 +1497,14 @@
       <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="G24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
@@ -1499,7 +1530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -1545,7 +1576,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1571,7 +1602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
@@ -1597,7 +1628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -1643,7 +1674,7 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>63</v>
       </c>
@@ -1653,43 +1684,43 @@
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-    </row>
-    <row r="31">
+      <c r="D30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
@@ -1735,7 +1766,7 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1781,7 +1812,7 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
@@ -1807,7 +1838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
@@ -1833,7 +1864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -1855,8 +1886,8 @@
       <c r="G35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>15</v>
+      <c r="H35" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -1879,7 +1910,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>74</v>
       </c>
@@ -1905,7 +1936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>76</v>
       </c>
@@ -1931,7 +1962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>78</v>
       </c>
@@ -1957,7 +1988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -1983,7 +2014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>82</v>
       </c>
@@ -1991,7 +2022,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>11</v>
@@ -2009,7 +2040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>84</v>
       </c>
@@ -2035,7 +2066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>86</v>
       </c>
@@ -2061,33 +2092,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="C43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>90</v>
       </c>
@@ -2113,31 +2144,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="C45" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>94</v>
       </c>
@@ -2163,7 +2196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2179,14 +2212,14 @@
       <c r="E47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>15</v>
+      <c r="F47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2209,7 +2242,7 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>98</v>
       </c>
@@ -2225,17 +2258,17 @@
       <c r="E48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="F48" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -2261,7 +2294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -2287,7 +2320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -2313,11 +2346,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -2339,11 +2372,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -2365,33 +2398,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="15" t="s">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="C54" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>111</v>
       </c>
@@ -2417,7 +2450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>112</v>
       </c>
@@ -2443,7 +2476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>113</v>
       </c>
@@ -2469,7 +2502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>114</v>
       </c>
@@ -2495,7 +2528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>115</v>
       </c>
@@ -2521,14 +2554,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2567,14 +2600,14 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -2613,14 +2646,14 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2660,6 +2693,7 @@
       <c r="AB62" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/excels/PlanPermission.xlsx
+++ b/src/main/resources/excels/PlanPermission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A4BCC2-CFD3-4AFC-AAFD-0B107FD0864A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29FC6AF-3B4B-4679-8613-D279D6F21A4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="4116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,8 +749,8 @@
   <dimension ref="A1:AB62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2189,11 +2189,11 @@
       <c r="F46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>15</v>
+      <c r="G46" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">

--- a/src/main/resources/excels/PlanPermission.xlsx
+++ b/src/main/resources/excels/PlanPermission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29FC6AF-3B4B-4679-8613-D279D6F21A4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A7C99F-DFF8-433E-927B-37DCC25793A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="4116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,8 +749,8 @@
   <dimension ref="A1:AB62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2073,8 +2073,8 @@
       <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>14</v>
+      <c r="C42" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>11</v>

--- a/src/main/resources/excels/PlanPermission.xlsx
+++ b/src/main/resources/excels/PlanPermission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\GoSELL-Automation\src\main\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A7C99F-DFF8-433E-927B-37DCC25793A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EFC003-4A5B-4879-8A0A-846AB21480F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="4116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13220" windowHeight="4120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="124">
   <si>
     <t>MenuItem</t>
   </si>
@@ -211,9 +211,6 @@
     <t>/call-center/intro</t>
   </si>
   <si>
-    <t>Call History</t>
-  </si>
-  <si>
     <t>Cashbook</t>
   </si>
   <si>
@@ -386,13 +383,22 @@
   </si>
   <si>
     <t>/setting</t>
+  </si>
+  <si>
+    <t>GoFree</t>
+  </si>
+  <si>
+    <t>Greyed Out</t>
+  </si>
+  <si>
+    <t>Call Center-Call History</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -448,6 +454,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -506,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -528,6 +542,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,18 +764,18 @@
   <dimension ref="A1:AB62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,8 +800,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -811,7 +829,9 @@
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -832,7 +852,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -857,7 +877,9 @@
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -878,7 +900,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -903,8 +925,11 @@
       <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -929,8 +954,11 @@
       <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -955,7 +983,9 @@
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -976,7 +1006,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1001,8 +1031,11 @@
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1027,8 +1060,11 @@
       <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1053,8 +1089,11 @@
       <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I9" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1079,8 +1118,11 @@
       <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -1105,8 +1147,11 @@
       <c r="H11" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1131,8 +1176,11 @@
       <c r="H12" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I12" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1157,8 +1205,11 @@
       <c r="H13" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I13" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1183,7 +1234,9 @@
       <c r="H14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1204,7 +1257,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1229,8 +1282,11 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1255,8 +1311,11 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>39</v>
       </c>
@@ -1281,8 +1340,11 @@
       <c r="H17" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1307,8 +1369,11 @@
       <c r="H18" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
@@ -1333,8 +1398,11 @@
       <c r="H19" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I19" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
@@ -1359,8 +1427,11 @@
       <c r="H20" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -1385,8 +1456,11 @@
       <c r="H21" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1411,7 +1485,9 @@
       <c r="H22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1432,7 +1508,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1457,7 +1533,9 @@
       <c r="H23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1478,7 +1556,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -1503,8 +1581,11 @@
       <c r="H24" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
@@ -1529,8 +1610,11 @@
       <c r="H25" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -1555,7 +1639,9 @@
       <c r="H26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1576,7 +1662,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1601,8 +1687,11 @@
       <c r="H27" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
@@ -1627,8 +1716,11 @@
       <c r="H28" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I28" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -1653,7 +1745,9 @@
       <c r="H29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1674,9 +1768,9 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>62</v>
@@ -1699,7 +1793,9 @@
       <c r="H30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -1720,13 +1816,13 @@
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1745,7 +1841,9 @@
       <c r="H31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1766,12 +1864,12 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
@@ -1791,7 +1889,9 @@
       <c r="H32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1812,12 +1912,12 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>14</v>
@@ -1837,13 +1937,16 @@
       <c r="H33" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I33" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>14</v>
@@ -1863,14 +1966,17 @@
       <c r="H34" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1889,7 +1995,9 @@
       <c r="H35" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -1910,38 +2018,41 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>14</v>
@@ -1961,65 +2072,74 @@
       <c r="H37" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I37" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>14</v>
@@ -2039,13 +2159,16 @@
       <c r="H40" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I40" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>14</v>
@@ -2065,65 +2188,74 @@
       <c r="H41" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I41" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="B43" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>14</v>
@@ -2143,66 +2275,75 @@
       <c r="H44" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I44" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
@@ -2221,7 +2362,9 @@
       <c r="H47" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2242,38 +2385,41 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>14</v>
@@ -2293,13 +2439,16 @@
       <c r="H49" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I49" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>14</v>
@@ -2319,13 +2468,16 @@
       <c r="H50" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I50" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>14</v>
@@ -2345,13 +2497,16 @@
       <c r="H51" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I51" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>14</v>
@@ -2371,196 +2526,220 @@
       <c r="H52" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I52" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="C53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="C54" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="B55" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="B56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="B57" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="B58" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="B59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C60" s="16" t="s">
         <v>10</v>
       </c>
@@ -2579,7 +2758,9 @@
       <c r="H60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -2600,13 +2781,13 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C61" s="16" t="s">
         <v>10</v>
       </c>
@@ -2625,7 +2806,9 @@
       <c r="H61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -2646,13 +2829,13 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C62" s="16" t="s">
         <v>10</v>
       </c>
@@ -2671,7 +2854,9 @@
       <c r="H62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>

--- a/src/main/resources/excels/PlanPermission.xlsx
+++ b/src/main/resources/excels/PlanPermission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\GoSELL-Automation\src\main\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EFC003-4A5B-4879-8A0A-846AB21480F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAC7337-D43B-49B9-B155-59504BA07ABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13220" windowHeight="4120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="4116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="116">
   <si>
     <t>MenuItem</t>
   </si>
@@ -269,30 +269,6 @@
   </si>
   <si>
     <t>/marketing/loyalty/list</t>
-  </si>
-  <si>
-    <t>Marketing-Google Analytics</t>
-  </si>
-  <si>
-    <t>/marketing/google-analytics</t>
-  </si>
-  <si>
-    <t>Marketing-Google Shopping</t>
-  </si>
-  <si>
-    <t>/marketing/google-shopping</t>
-  </si>
-  <si>
-    <t>Marketing-Google Tag Manager</t>
-  </si>
-  <si>
-    <t>/marketing/google-tag-manager</t>
-  </si>
-  <si>
-    <t>Marketing-Facebook Pixel</t>
-  </si>
-  <si>
-    <t>/marketing/facebook-pixel</t>
   </si>
   <si>
     <t>Marketing-Loyalty Point</t>
@@ -520,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -531,7 +507,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -761,21 +736,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB62"/>
+  <dimension ref="A1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,10 +776,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -852,7 +827,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -900,7 +875,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -929,7 +904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -958,7 +933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1006,7 +981,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1089,11 +1064,11 @@
       <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="I9" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1122,7 +1097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -1151,7 +1126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1176,11 +1151,11 @@
       <c r="H12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="I12" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1205,11 +1180,11 @@
       <c r="H13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1257,7 +1232,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1286,7 +1261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1315,36 +1290,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1373,7 +1348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
@@ -1398,11 +1373,11 @@
       <c r="H19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="I19" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
@@ -1431,7 +1406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -1460,7 +1435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1508,7 +1483,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1524,13 +1499,13 @@
       <c r="E23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="19" t="s">
+      <c r="F23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -1556,7 +1531,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -1575,17 +1550,17 @@
       <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="18" t="s">
+      <c r="G24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
@@ -1614,7 +1589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -1662,7 +1637,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1691,7 +1666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
@@ -1720,7 +1695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -1768,9 +1743,9 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>62</v>
@@ -1778,19 +1753,19 @@
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="17" t="s">
+      <c r="D30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -1816,7 +1791,7 @@
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -1841,8 +1816,8 @@
       <c r="H31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="21" t="s">
-        <v>122</v>
+      <c r="I31" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1864,7 +1839,7 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -1912,7 +1887,7 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
@@ -1941,7 +1916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
@@ -1970,7 +1945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -1992,7 +1967,7 @@
       <c r="G35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -2018,7 +1993,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>73</v>
       </c>
@@ -2047,7 +2022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
@@ -2076,7 +2051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
@@ -2105,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
@@ -2134,7 +2109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
@@ -2163,237 +2138,237 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>15</v>
+      <c r="C41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>15</v>
+      <c r="C43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+    </row>
+    <row r="44" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="B45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="D45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-    </row>
-    <row r="48" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>11</v>
@@ -2401,28 +2376,28 @@
       <c r="E48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>11</v>
+      <c r="F48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>11</v>
@@ -2436,446 +2411,330 @@
       <c r="G49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>15</v>
+      <c r="C50" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="B52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B53" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="B54" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="B56" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="C56" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="C57" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+    </row>
+    <row r="58" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="4" t="s">
+      <c r="C58" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-    </row>
-    <row r="61" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-    </row>
-    <row r="62" spans="1:28" ht="13" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excels/PlanPermission.xlsx
+++ b/src/main/resources/excels/PlanPermission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAC7337-D43B-49B9-B155-59504BA07ABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8C5AB-2E5B-4A07-8C18-AAEB786482F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="4116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="117">
   <si>
     <t>MenuItem</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>Call Center-Call History</t>
+  </si>
+  <si>
+    <t>updated 12/22/22</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2004,22 +2007,25 @@
         <v>10</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
